--- a/spreadsheet/macrofree/redis_resiliency_checklist.en.xlsx
+++ b/spreadsheet/macrofree/redis_resiliency_checklist.en.xlsx
@@ -1059,12 +1059,12 @@
     <row r="8" ht="16.5" customHeight="1">
       <c r="A8" s="21" t="inlineStr">
         <is>
-          <t>Zone-redundancy</t>
+          <t>Operations management</t>
         </is>
       </c>
       <c r="B8" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Availability Zones</t>
         </is>
       </c>
       <c r="C8" s="21" t="inlineStr">
@@ -1101,12 +1101,12 @@
     <row r="9" ht="16.5" customHeight="1">
       <c r="A9" s="21" t="inlineStr">
         <is>
-          <t>Persistence</t>
+          <t>Operations management</t>
         </is>
       </c>
       <c r="B9" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Data Persistence</t>
         </is>
       </c>
       <c r="C9" s="21" t="inlineStr">
@@ -1124,7 +1124,7 @@
       <c r="G9" s="21" t="n"/>
       <c r="H9" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-cache-for-redis/cache-how-to-premium-persistence?tabs=premium</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-cache-for-redis/cache-high-availability#persistence</t>
         </is>
       </c>
       <c r="I9" s="15" t="n"/>
@@ -1143,12 +1143,12 @@
     <row r="10" ht="16.5" customHeight="1">
       <c r="A10" s="21" t="inlineStr">
         <is>
-          <t>Persistence</t>
+          <t>Operations management</t>
         </is>
       </c>
       <c r="B10" s="21" t="inlineStr">
         <is>
-          <t>&amp;nbsp</t>
+          <t>Geo-redundant storage</t>
         </is>
       </c>
       <c r="C10" s="21" t="inlineStr">
@@ -1166,7 +1166,7 @@
       <c r="G10" s="21" t="n"/>
       <c r="H10" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-cache-for-redis/cache-how-to-premium-persistence?tabs=premium</t>
+          <t>https://learn.microsoft.com/en-us/azure/azure-cache-for-redis/cache-high-availability#storage-account-for-persistence</t>
         </is>
       </c>
       <c r="I10" s="15" t="n"/>
@@ -1185,12 +1185,12 @@
     <row r="11" ht="16.5" customHeight="1">
       <c r="A11" s="21" t="inlineStr">
         <is>
+          <t>Operations management</t>
+        </is>
+      </c>
+      <c r="B11" s="21" t="inlineStr">
+        <is>
           <t>Geo-replication</t>
-        </is>
-      </c>
-      <c r="B11" s="21" t="inlineStr">
-        <is>
-          <t>&amp;nbsp</t>
         </is>
       </c>
       <c r="C11" s="21" t="inlineStr">
@@ -5998,7 +5998,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Zone-redundancy</t>
+          <t>Identity and Access Management</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -6035,7 +6035,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Persistence</t>
+          <t>Network topology and connectivity</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -6062,7 +6062,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Geo-replication</t>
+          <t>Operations management</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -6082,6 +6082,11 @@
           <t>Not required</t>
         </is>
       </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Platform Automation</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr">
         <is>
           <t>Recommendation understood, but not needed by current requirements</t>
@@ -6097,6 +6102,11 @@
       <c r="B6" s="10" t="inlineStr">
         <is>
           <t>N/A</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Security</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">

--- a/spreadsheet/macrofree/redis_resiliency_checklist.en.xlsx
+++ b/spreadsheet/macrofree/redis_resiliency_checklist.en.xlsx
@@ -1059,21 +1059,25 @@
     <row r="8" ht="16.5" customHeight="1">
       <c r="A8" s="21" t="inlineStr">
         <is>
-          <t>Operations management</t>
+          <t>BC and DR</t>
         </is>
       </c>
       <c r="B8" s="21" t="inlineStr">
         <is>
-          <t>Availability Zones</t>
+          <t>High Availability</t>
         </is>
       </c>
       <c r="C8" s="21" t="inlineStr">
         <is>
-          <t>Azure Cache for Redis supports zone redundant configurations in the Premium and Enterprise tiers. A zone redundant cache can place its nodes across different Azure Availability Zones in the same region. It eliminates data center or AZ outage as a single point of failure and increases the overall availability of your cache.</t>
+          <t>Enable zone redundancy for Azure Cache for Redis. Azure Cache for Redis supports zone redundant configurations in the Premium and Enterprise tiers. A zone redundant cache can place its nodes across different Azure Availability Zones in the same region. It eliminates data center or AZ outage as a single point of failure and increases the overall availability of your cache.</t>
         </is>
       </c>
       <c r="D8" s="21" t="n"/>
-      <c r="E8" s="21" t="n"/>
+      <c r="E8" s="21" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -1101,21 +1105,25 @@
     <row r="9" ht="16.5" customHeight="1">
       <c r="A9" s="21" t="inlineStr">
         <is>
-          <t>Operations management</t>
+          <t>BC and DR</t>
         </is>
       </c>
       <c r="B9" s="21" t="inlineStr">
         <is>
-          <t>Data Persistence</t>
+          <t>High Availability</t>
         </is>
       </c>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>Because your cache data is stored in memory, a rare and unplanned failure of multiple nodes can cause all the data to be dropped. To avoid losing data completely, Redis persistence allows you to take periodic snapshots of in-memory data, and store it to your storage account.</t>
+          <t>Configure data persistence for an Azure Cache for Redis instance. Because your cache data is stored in memory, a rare and unplanned failure of multiple nodes can cause all the data to be dropped. To avoid losing data completely, Redis persistence allows you to take periodic snapshots of in-memory data, and store it to your storage account.</t>
         </is>
       </c>
       <c r="D9" s="21" t="n"/>
-      <c r="E9" s="21" t="n"/>
+      <c r="E9" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="F9" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -1143,12 +1151,12 @@
     <row r="10" ht="16.5" customHeight="1">
       <c r="A10" s="21" t="inlineStr">
         <is>
-          <t>Operations management</t>
+          <t>BC and DR</t>
         </is>
       </c>
       <c r="B10" s="21" t="inlineStr">
         <is>
-          <t>Geo-redundant storage</t>
+          <t>High Availability</t>
         </is>
       </c>
       <c r="C10" s="21" t="inlineStr">
@@ -1157,7 +1165,11 @@
         </is>
       </c>
       <c r="D10" s="21" t="n"/>
-      <c r="E10" s="21" t="n"/>
+      <c r="E10" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="F10" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -1185,21 +1197,25 @@
     <row r="11" ht="16.5" customHeight="1">
       <c r="A11" s="21" t="inlineStr">
         <is>
-          <t>Operations management</t>
+          <t>BC and DR</t>
         </is>
       </c>
       <c r="B11" s="21" t="inlineStr">
         <is>
-          <t>Geo-replication</t>
+          <t>High Availability</t>
         </is>
       </c>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>Geo-replication is a mechanism for linking two or more Azure Cache for Redis instances, typically spanning two Azure regions. Geo-replication is designed mainly for cross-region disaster recovery. Two Premium tier cache instances are connected through geo-replication in a way that provides reads and writes to your primary cache, and that data is replicated to the secondary cache.</t>
+          <t>Configure passive geo-replication for Premium Azure Cache for Redis instances. Geo-replication is a mechanism for linking two or more Azure Cache for Redis instances, typically spanning two Azure regions. Geo-replication is designed mainly for cross-region disaster recovery. Two Premium tier cache instances are connected through geo-replication in a way that provides reads and writes to your primary cache, and that data is replicated to the secondary cache.</t>
         </is>
       </c>
       <c r="D11" s="21" t="n"/>
-      <c r="E11" s="21" t="n"/>
+      <c r="E11" s="21" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="F11" t="inlineStr">
         <is>
           <t>Not verified</t>
@@ -5922,7 +5938,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -6035,7 +6051,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Network topology and connectivity</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -6062,7 +6078,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Operations management</t>
+          <t>BC and DR</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -6084,7 +6100,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Platform Automation</t>
+          <t>Governance and Security</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -6106,7 +6122,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Cost Governance</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -6117,6 +6133,20 @@
       <c r="K6" t="inlineStr">
         <is>
           <t>es</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Application Deployment</t>
         </is>
       </c>
     </row>
